--- a/xlsx/无产阶级_intext.xlsx
+++ b/xlsx/无产阶级_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>无产阶级</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞工</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>勞工運動</t>
+    <t>劳工运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_Unionism</t>
@@ -53,9 +53,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>無產階級</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Social_Movement_Unionism</t>
   </si>
   <si>
@@ -65,19 +62,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工團主義</t>
+    <t>工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府工團主義</t>
+    <t>无政府工团主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Labor_rights</t>
@@ -89,13 +86,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E5%8D%94%E5%95%86</t>
   </si>
   <si>
-    <t>集體協商</t>
+    <t>集体协商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%95%B6%E5%8B%9E%E5%8B%95%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>不當勞動行為</t>
+    <t>不当劳动行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A5%E5%B7%A5</t>
@@ -107,7 +104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%89%E5%83%B9%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>廉價勞工</t>
+    <t>廉价劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A1%E6%B4%BE%E9%81%A3</t>
@@ -131,55 +128,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E6%80%A7%E5%B7%A5%E6%99%82</t>
   </si>
   <si>
-    <t>彈性工時</t>
+    <t>弹性工时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>基本工資</t>
+    <t>基本工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>維生工資</t>
+    <t>维生工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%82%B7%E5%AE%B3</t>
   </si>
   <si>
-    <t>職業傷害</t>
+    <t>职业伤害</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%97%85</t>
   </si>
   <si>
-    <t>職業病</t>
+    <t>职业病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8B%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>過勞死</t>
+    <t>过劳死</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%B7%A5%E4%BC%9A%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>罷工行動</t>
+    <t>罢工行动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/General_strike</t>
@@ -239,25 +236,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>澳大利亞工黨</t>
+    <t>澳大利亚工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>工黨 (英國)</t>
+    <t>工党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E6%84%9B%E7%88%BE%E8%98%AD)</t>
   </si>
   <si>
-    <t>工黨 (愛爾蘭)</t>
+    <t>工党 (爱尔兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>以色列工黨</t>
+    <t>以色列工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0%E5%B7%A5%E5%85%9A</t>
@@ -269,31 +266,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E6%8C%AA%E5%A8%81)</t>
   </si>
   <si>
-    <t>工黨 (挪威)</t>
+    <t>工党 (挪威)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>台灣工黨</t>
+    <t>台湾工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>工黨 (臺灣)</t>
+    <t>工党 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%8F%AD</t>
@@ -317,19 +314,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>社會階級</t>
+    <t>社会阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>馬克思</t>
+    <t>马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E4%BA%9E%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>明尼亞波利斯</t>
+    <t>明尼亚波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E9%AC%A5%E7%88%AD</t>
   </si>
   <si>
-    <t>階級鬥爭</t>
+    <t>阶级斗争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%A9%E4%BD%99%E4%BB%B7%E5%80%BC</t>
   </si>
   <si>
-    <t>剩余价值</t>
+    <t>剩馀价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B9%9D%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>十九世紀</t>
+    <t>十九世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9E%E8%A8%8E</t>
   </si>
   <si>
-    <t>乞討</t>
+    <t>乞讨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%96%E6%B7%AB</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%A5%97%E8%A4%B2%E6%BC%A2</t>
   </si>
   <si>
-    <t>無套褲漢</t>
+    <t>无套裤汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
@@ -455,9 +452,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
-    <t>社会阶级</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%B5%84%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A5%B4</t>
   </si>
   <si>
-    <t>農奴</t>
+    <t>农奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%91</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B1%A4%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>上層階級</t>
+    <t>上层阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B3%E5%A3%AB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>紳士階級</t>
+    <t>绅士阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8F%91%E6%88%B7</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98</t>
   </si>
   <si>
-    <t>白領</t>
+    <t>白领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E9%A2%86</t>
@@ -1097,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -1123,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1152,10 +1146,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1181,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1210,10 +1204,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1239,10 +1233,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1268,10 +1262,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1297,10 +1291,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1326,10 +1320,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1355,10 +1349,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1384,10 +1378,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1413,10 +1407,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1442,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1471,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1500,10 +1494,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1529,10 +1523,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1558,10 +1552,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1587,10 +1581,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1616,10 +1610,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1645,10 +1639,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1674,10 +1668,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1703,10 +1697,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,10 +1726,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1761,10 +1755,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1790,10 +1784,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1819,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1848,10 +1842,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1877,10 +1871,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1906,10 +1900,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1935,10 +1929,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1964,10 +1958,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1993,10 +1987,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2022,10 +2016,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2051,10 +2045,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2080,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2109,10 +2103,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2138,10 +2132,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2167,10 +2161,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2196,10 +2190,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2225,10 +2219,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2254,10 +2248,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2283,10 +2277,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2312,10 +2306,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2341,10 +2335,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2370,10 +2364,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2399,10 +2393,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2428,10 +2422,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>7</v>
@@ -2457,10 +2451,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2486,10 +2480,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2515,10 +2509,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2544,10 +2538,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2573,10 +2567,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2602,10 +2596,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2631,10 +2625,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2660,10 +2654,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2689,10 +2683,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2718,10 +2712,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2747,10 +2741,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2776,10 +2770,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2805,10 +2799,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2834,10 +2828,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2863,10 +2857,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2892,10 +2886,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2921,10 +2915,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2950,10 +2944,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2979,10 +2973,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
@@ -3008,10 +3002,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3037,10 +3031,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="G73" t="n">
         <v>28</v>
@@ -3066,10 +3060,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3095,10 +3089,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3124,10 +3118,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3153,10 +3147,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3182,10 +3176,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3211,10 +3205,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3240,10 +3234,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3269,10 +3263,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3298,10 +3292,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3327,10 +3321,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3356,10 +3350,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3385,10 +3379,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3414,10 +3408,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3443,10 +3437,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3472,10 +3466,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3501,10 +3495,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3530,10 +3524,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3559,10 +3553,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3588,10 +3582,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3617,10 +3611,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3646,10 +3640,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>

--- a/xlsx/无产阶级_intext.xlsx
+++ b/xlsx/无产阶级_intext.xlsx
@@ -29,7 +29,7 @@
     <t>无产者 (一九八四)</t>
   </si>
   <si>
-    <t>政策_政策_政治_无产阶级</t>
+    <t>体育运动_体育运动_草根_无产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
